--- a/symptom_check.xlsx
+++ b/symptom_check.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA9965E-C3A4-4424-83FE-51676F60BB99}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8158756-4286-45E8-AF73-76E0F3E4B6E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>ANSWER</t>
   </si>
@@ -97,86 +97,117 @@
     <t>Холин</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>18-30</t>
-  </si>
-  <si>
-    <t>30-50</t>
-  </si>
-  <si>
-    <t>50+</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>М</t>
-  </si>
-  <si>
-    <t>Ж</t>
-  </si>
-  <si>
-    <t>Pregnancy</t>
-  </si>
-  <si>
     <t>Да</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>Meno</t>
-  </si>
-  <si>
-    <t>Пре</t>
-  </si>
-  <si>
-    <t>Пост</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Sweet</t>
-  </si>
-  <si>
-    <t>Alcohol</t>
-  </si>
-  <si>
-    <t>Stress</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>Antibiotics</t>
-  </si>
-  <si>
-    <t>Immunity</t>
-  </si>
-  <si>
-    <t>Surgery</t>
+    <t>У вас бывает бессонница?</t>
+  </si>
+  <si>
+    <t>Вы часто чувствуете онемение и покалывание в ногах?</t>
+  </si>
+  <si>
+    <t>У вас часто бывает головная боль и головокружение?</t>
+  </si>
+  <si>
+    <t>Вы испытываете боли в мышцах, не связанные с физической нагрузкой?</t>
+  </si>
+  <si>
+    <t>У вас бывают судороги в ногах?</t>
+  </si>
+  <si>
+    <t>жирная</t>
+  </si>
+  <si>
+    <t>сухая</t>
+  </si>
+  <si>
+    <t>бледная</t>
+  </si>
+  <si>
+    <t>желтоватая</t>
+  </si>
+  <si>
+    <t>Ваша кожа шелушится и чешется?</t>
+  </si>
+  <si>
+    <t>У вас есть акне?</t>
+  </si>
+  <si>
+    <t>Ссадины на коже плохо заживают?</t>
+  </si>
+  <si>
+    <t>На коже много синячков?</t>
+  </si>
+  <si>
+    <t>Ваши ногти ломкие и мягкие?</t>
+  </si>
+  <si>
+    <t>Ваши ногти слоятся?</t>
+  </si>
+  <si>
+    <t>Ваши волосы выпадают сильнее чем обычно?</t>
+  </si>
+  <si>
+    <t>Ваши волосы стали сухими?</t>
+  </si>
+  <si>
+    <t>Вы часто болеете ОРВИ?</t>
+  </si>
+  <si>
+    <t>Вы заметили, что в последнее время снизилось половое влечение?</t>
+  </si>
+  <si>
+    <t>Ваше питание содержит большое количество углеводов?</t>
+  </si>
+  <si>
+    <t>Вы отмечаете, что стали раздражительным?</t>
+  </si>
+  <si>
+    <t>Вы быстро устаете во время работы?</t>
+  </si>
+  <si>
+    <t>Вы чувствуете постоянное  ощущение холода?</t>
+  </si>
+  <si>
+    <t>Вы заметили ухудшение зрения?</t>
+  </si>
+  <si>
+    <t>Вы заметили ухудшение памяти и внимания?</t>
+  </si>
+  <si>
+    <t>Вы испытываете высокие физические нагрузки?</t>
+  </si>
+  <si>
+    <t>Вас беспокоит повышенная потливость?</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Ваша кожа скорее жирная или сухая?</t>
+  </si>
+  <si>
+    <t>Ваша кожа лица скорее бледная или желтоватая?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,9 +239,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -491,422 +523,900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" customWidth="1"/>
-    <col min="7" max="7" width="5.26953125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1796875" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" customWidth="1"/>
-    <col min="12" max="12" width="5.26953125" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="6.08984375" customWidth="1"/>
-    <col min="15" max="15" width="4.90625" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="88.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" customWidth="1"/>
+    <col min="8" max="8" width="5.36328125" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" customWidth="1"/>
+    <col min="13" max="13" width="5.36328125" customWidth="1"/>
+    <col min="14" max="14" width="8.6328125" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" customWidth="1"/>
+    <col min="16" max="16" width="4.81640625" customWidth="1"/>
+    <col min="17" max="17" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>25</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>39</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C43" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C47" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C49" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
+      <c r="C51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
